--- a/biology/Neurosciences/Protéine_précurseur_de_l'amyloïde/Protéine_précurseur_de_l'amyloïde.xlsx
+++ b/biology/Neurosciences/Protéine_précurseur_de_l'amyloïde/Protéine_précurseur_de_l'amyloïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_pr%C3%A9curseur_de_l%27amylo%C3%AFde</t>
+          <t>Protéine_précurseur_de_l'amyloïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La protéine précurseur de l'amyloïde (APP en anglais pour amyloid precursor protein) est une glycoprotéine transmembranaire de type I appartenant à la famille APP qui rassemble chez les mammifères, y compris l'homme, trois orthologues aux fonctions partiellement redondantes : APP, APLP 1 et 2 (Amyloid Precursor-Like Protein). 
 Exprimée dans l'ensemble du corps humain, c'est dans le cortex cérébral que l'on retrouve la plus forte expression d'APP. 
-La protéine précurseur de l'amyloïde est conservée par l'évolution, on la retrouve chez la mouche[1], suggérant qu'elle possède une importante fonction physiologique[2]. 
-L'APP serait impliquée dans de nombreuses fonctions comme le développement du système nerveux périphérique, la croissance et le transport axonal, la synaptogenèse, la survie neuronale et le comportement, notamment la mémoire[3].
+La protéine précurseur de l'amyloïde est conservée par l'évolution, on la retrouve chez la mouche, suggérant qu'elle possède une importante fonction physiologique. 
+L'APP serait impliquée dans de nombreuses fonctions comme le développement du système nerveux périphérique, la croissance et le transport axonal, la synaptogenèse, la survie neuronale et le comportement, notamment la mémoire.
 Il existe deux voies majoritaires du métabolisme de l'APP, la voie amyloïde et la voie non amyloïde. 
-La première de ces voies aboutit à la production du peptide β-amyloïde impliqué dans la maladie d'Alzheimer[4]. 
+La première de ces voies aboutit à la production du peptide β-amyloïde impliqué dans la maladie d'Alzheimer. 
 En effet dans cette pathologie, on retrouve des agrégats toxiques de ce peptide. 
 C'est pour cela qu'APP est devenue le sujet de recherches scientifiques intenses.
 </t>
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_pr%C3%A9curseur_de_l%27amylo%C3%AFde</t>
+          <t>Protéine_précurseur_de_l'amyloïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Structure d'APP</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette protéine est composée d'un large domaine N-terminal et d'un domaine C-terminal de taille plus modeste. 
 Elle ne possède qu'un seul passage transmembranaire capable d'interagir avec le cholestérol présent dans la membrane plasmique. 
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_pr%C3%A9curseur_de_l%27amylo%C3%AFde</t>
+          <t>Protéine_précurseur_de_l'amyloïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,14 +566,86 @@
           <t>Clivage d'APP</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cortex des protéases, les sécrétases (α, β, γ) réalisent une séquence de clivages. 
 Ces protéases possèdent un site de coupure spécifique ce qui permet in fine de générer en intra- ou en extracellulaire différents peptides avec des propriétés particulières.
-Voie non amyloïde
-Cette voie, non toxique, aboutit à la production d'une région N-terminale sécrétée (sAPPα), d'une région intermédiaire (P3) et d'une région C-terminale intracellulaire (AICD, APP Intracellular Domain) par les clivages successifs de la α-sécrétase puis de la γ-sécrétase.
-Voie amyloïde
-Cette voie, toxique, aboutit également à la production d'une région N-terminale sécrétée, mais plus courte (sAPPβ), du peptide β-amyloïde (Aβ) et du domaine intracellulaire AICD par les clivages successifs de la β-sécrétase puis de la γ-sécrétase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Protéine_précurseur_de_l'amyloïde</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prot%C3%A9ine_pr%C3%A9curseur_de_l%27amylo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Clivage d'APP</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Voie non amyloïde</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette voie, non toxique, aboutit à la production d'une région N-terminale sécrétée (sAPPα), d'une région intermédiaire (P3) et d'une région C-terminale intracellulaire (AICD, APP Intracellular Domain) par les clivages successifs de la α-sécrétase puis de la γ-sécrétase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Protéine_précurseur_de_l'amyloïde</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prot%C3%A9ine_pr%C3%A9curseur_de_l%27amylo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Clivage d'APP</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voie amyloïde</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette voie, toxique, aboutit également à la production d'une région N-terminale sécrétée, mais plus courte (sAPPβ), du peptide β-amyloïde (Aβ) et du domaine intracellulaire AICD par les clivages successifs de la β-sécrétase puis de la γ-sécrétase.
 </t>
         </is>
       </c>
